--- a/week-1/Exercises/1-2-A-basics-formulas-functions/temperature-pulse-check.xlsx
+++ b/week-1/Exercises/1-2-A-basics-formulas-functions/temperature-pulse-check.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\Week 1\day-4-basics-of-formulas-and-functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Setup\Documents\GitHub\data-analytics-lectures\week-1\Exercises\1-2-A-basics-formulas-functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -365,7 +365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -414,7 +416,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43732</v>
+        <v>43731</v>
       </c>
       <c r="B5" s="5">
         <v>81</v>
@@ -423,7 +425,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43733</v>
+        <v>43732</v>
       </c>
       <c r="B6" s="5">
         <v>74</v>
